--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\PROYEK3_vmart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -412,9 +412,6 @@
     <t>Riset/diskusi</t>
   </si>
   <si>
-    <t>Pencarian mitra Proposal</t>
-  </si>
-  <si>
     <t>Flowchart Transaksi</t>
   </si>
   <si>
@@ -433,63 +430,6 @@
     <t>ERD  Pembuatan Database</t>
   </si>
   <si>
-    <t>Pembuatan  Design mockup register Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup login Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup dashboard Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup pesanan Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup pembayaran Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup review user Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup profile user Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup landing page Web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup admin web</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup register Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup login Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup home Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup keranjang belanja Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup konfirmasi pembayaran Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup tentang kami Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup akun Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup kontak Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup order Mobile</t>
-  </si>
-  <si>
-    <t>Pembuatan  Design mockup keranajang Mobile</t>
-  </si>
-  <si>
     <t>Membuat  halaman register Mobile</t>
   </si>
   <si>
@@ -517,12 +457,6 @@
     <t>Membuat  halaman order Mobile</t>
   </si>
   <si>
-    <t>Membuat  halaman keranajang Mobile</t>
-  </si>
-  <si>
-    <t>Membuat register Web</t>
-  </si>
-  <si>
     <t>Membuat login Web</t>
   </si>
   <si>
@@ -556,23 +490,29 @@
     <t>CRUD profile user Web</t>
   </si>
   <si>
-    <t>Membuat landing page Web</t>
-  </si>
-  <si>
     <t>Membuat Laporan Proyek</t>
   </si>
   <si>
-    <t>Membuat Proposal Proyek</t>
-  </si>
-  <si>
     <t>Keterangan :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pencarian Mitra </t>
+  </si>
+  <si>
+    <t>Membuat Proposal</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup  Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,8 +555,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +620,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,6 +814,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,39 +845,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,10 +1219,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1264,10 +1237,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1282,10 +1255,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1300,10 +1273,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1318,10 +1291,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1764,40 +1737,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2077,9 +2050,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2090,592 +2063,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="31" t="s">
         <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="34"/>
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="41">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="45"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="32">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="32">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43"/>
-      <c r="F4" s="6" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="34"/>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="34"/>
+      <c r="F7" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="32">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="32">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="32">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="32">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="41">
-        <v>3</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="43"/>
-      <c r="F5" s="7" t="s">
+      <c r="B13" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="32">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="32">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="41">
-        <v>4</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="43"/>
-      <c r="F6" s="44" t="s">
+      <c r="B15" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="32">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="32">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="41">
-        <v>5</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="43"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="41">
-        <v>6</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="41">
-        <v>7</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="41">
-        <v>8</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="B17" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="32">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="32">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="32">
+        <v>20</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="32">
+        <v>21</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="32">
+        <v>22</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="32">
+        <v>23</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="32">
+        <v>24</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="32">
+        <v>25</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="41">
-        <v>9</v>
-      </c>
-      <c r="B11" s="42" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="32">
+        <v>26</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="41">
-        <v>10</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="32">
+        <v>27</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="43"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="41">
-        <v>11</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="32">
+        <v>28</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="41">
-        <v>12</v>
-      </c>
-      <c r="B14" s="42" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="32">
+        <v>29</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="43"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="41">
-        <v>13</v>
-      </c>
-      <c r="B15" s="42" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="41">
-        <v>14</v>
-      </c>
-      <c r="B16" s="42" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="32">
+        <v>31</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="43"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="41">
-        <v>15</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="C33" s="48"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="32">
+        <v>32</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="43"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="41">
-        <v>16</v>
-      </c>
-      <c r="B18" s="42" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="32">
+        <v>33</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="43"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="41">
-        <v>17</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="43"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="41">
-        <v>18</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="43"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="41">
-        <v>19</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="43"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="41">
-        <v>20</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="43"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="41">
-        <v>21</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="41">
-        <v>22</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="41">
-        <v>23</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="41">
-        <v>24</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="43"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="41">
-        <v>25</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="43"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="41">
-        <v>26</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="43"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="41">
-        <v>27</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="43"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="41">
-        <v>28</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="43"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="41">
-        <v>29</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="43"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="41">
-        <v>30</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="43"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="41">
-        <v>31</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="43"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="41">
-        <v>32</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="43"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="41">
-        <v>33</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="41">
+      <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="41">
-        <v>35</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="41">
-        <v>36</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="41">
-        <v>37</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="43"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="41">
-        <v>38</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="43"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="41">
-        <v>39</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="43"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="41">
-        <v>40</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="43"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="41">
-        <v>41</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="43"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="41">
-        <v>42</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="43"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="41">
-        <v>43</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="43"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="41">
-        <v>44</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="43"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="41">
-        <v>45</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="43"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="41">
-        <v>46</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="43"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="41">
-        <v>47</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="43"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="41">
-        <v>48</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="43"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="41">
-        <v>49</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="43"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="41">
-        <v>50</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="43"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="41">
-        <v>51</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="43"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="41">
-        <v>52</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="43"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="41">
-        <v>52</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="43"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="41">
-        <v>53</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="43"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="43"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -874,6 +874,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2096,9 +2102,7 @@
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="34"/>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="32">
@@ -2109,7 +2113,9 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="45"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32">
@@ -2120,7 +2126,7 @@
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="34"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="50" t="s">
         <v>11</v>
       </c>
     </row>

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester4\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -506,13 +506,28 @@
   </si>
   <si>
     <t>Pembuatan  Design mockup Mobile</t>
+  </si>
+  <si>
+    <t>DFD</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>SPMP</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,16 +565,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Webdings2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -744,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -830,56 +856,78 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,10 +1273,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1243,10 +1291,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1261,10 +1309,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1279,10 +1327,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1297,10 +1345,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1743,40 +1791,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2056,410 +2104,546 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D3" s="34"/>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="58"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="45"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="58"/>
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D5" s="34"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="58"/>
+      <c r="G5" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D6" s="34"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="58"/>
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="46"/>
+      <c r="B7" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D7" s="34"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="58"/>
+      <c r="G7" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="48"/>
+      <c r="B8" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="58"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="46"/>
+      <c r="B9" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D9" s="34"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="47"/>
+      <c r="B10" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="48"/>
+      <c r="B11" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="49"/>
+      <c r="B12" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="46"/>
+      <c r="B13" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="48"/>
+      <c r="B14" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" s="34"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="46"/>
+      <c r="B15" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" s="34"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="48"/>
+      <c r="B16" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="58"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="48"/>
+      <c r="B17" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" s="34"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="47"/>
+      <c r="B18" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" s="34"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="58"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="32">
         <v>17</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="47"/>
+        <v>147</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" s="34"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="32">
         <v>18</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="48"/>
+        <v>148</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="58"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="48"/>
+      <c r="B21" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="58"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="48"/>
+      <c r="B22" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D22" s="34"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="48"/>
+      <c r="B23" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="58"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="46"/>
+      <c r="B24" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="58"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="47"/>
+      <c r="B25" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="58"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="47"/>
+      <c r="B26" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="58"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="46"/>
+      <c r="B27" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="46"/>
+      <c r="B28" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="46"/>
+      <c r="B29" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D29" s="34"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="58"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="32">
         <v>28</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="48"/>
+      <c r="B30" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D30" s="34"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="58"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="32">
         <v>29</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="47"/>
+      <c r="B31" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D31" s="34"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="58"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="32">
         <v>30</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="48"/>
+      <c r="B32" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="58"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="32">
         <v>31</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="48"/>
+      <c r="B33" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="58"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="32">
         <v>32</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="47"/>
+      <c r="B34" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="58"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="32">
         <v>33</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="46"/>
+      <c r="B35" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="58"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="58"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="32">
+        <v>35</v>
+      </c>
+      <c r="B37" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="C37" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="32"/>
+      <c r="E37" s="58"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="32">
+        <v>36</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="D38" s="34"/>
+      <c r="E38" s="58"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="32">
+        <v>37</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester4\proyek_3\File_Proyek3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="166">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -487,9 +487,6 @@
     <t>Membuat halaman profile user Web</t>
   </si>
   <si>
-    <t>CRUD profile user Web</t>
-  </si>
-  <si>
     <t>Membuat Laporan Proyek</t>
   </si>
   <si>
@@ -521,6 +518,12 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Membuat Backlog Pembagian Tugas</t>
+  </si>
+  <si>
+    <t>Membuat halaman profie dan edit profile user Web</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -862,53 +865,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,6 +895,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,10 +1282,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1291,10 +1300,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1309,10 +1318,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1327,10 +1336,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1345,10 +1354,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1791,40 +1800,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="41" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2104,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2119,12 +2128,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
@@ -2133,45 +2142,45 @@
       <c r="B2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="58"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="46"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="B4" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="58"/>
+      <c r="E4" s="47" t="s">
+        <v>163</v>
+      </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
@@ -2180,14 +2189,14 @@
       <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="46"/>
       <c r="G5" s="35" t="s">
         <v>11</v>
       </c>
@@ -2196,14 +2205,14 @@
       <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="58"/>
+      <c r="E6" s="47" t="s">
+        <v>163</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
@@ -2212,15 +2221,15 @@
       <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="58"/>
-      <c r="G7" s="46" t="s">
+      <c r="B7" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="G7" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2228,145 +2237,145 @@
       <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="58"/>
-      <c r="G8" s="47"/>
+      <c r="E8" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="58"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="58"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="58"/>
+      <c r="E11" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="59" t="s">
-        <v>164</v>
+      <c r="C12" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="58"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="B13" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="58"/>
+      <c r="E13" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="58"/>
+      <c r="E14" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="58"/>
+      <c r="E15" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>164</v>
+      <c r="C16" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="E16" s="58"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="58"/>
+      <c r="E17" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="58"/>
+      <c r="E18" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32">
@@ -2375,11 +2384,11 @@
       <c r="B19" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>164</v>
+      <c r="C19" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D19" s="34"/>
-      <c r="E19" s="58"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="32">
@@ -2388,258 +2397,270 @@
       <c r="B20" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>164</v>
+      <c r="C20" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D20" s="34"/>
-      <c r="E20" s="58"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C21" s="47"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="58"/>
+      <c r="E21" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C22" s="47"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="58"/>
+      <c r="E22" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C23" s="47"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="58"/>
+      <c r="E23" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="58"/>
+      <c r="E24" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>164</v>
+      <c r="C25" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D25" s="34"/>
-      <c r="E25" s="58"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="58"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="B27" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C28" s="47"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="58"/>
+      <c r="E28" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C29" s="47"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="58"/>
+      <c r="E29" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="32">
         <v>28</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="58"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="32">
         <v>29</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C31" s="47"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="58"/>
+      <c r="E31" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32">
         <v>30</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="58"/>
+      <c r="C32" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="32">
         <v>31</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="59" t="s">
-        <v>164</v>
+      <c r="C33" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="58"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32">
         <v>32</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>164</v>
+      <c r="C34" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="58"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="32">
         <v>33</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="59" t="s">
-        <v>164</v>
+      <c r="C35" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="58"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="59" t="s">
-        <v>164</v>
+      <c r="C36" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="D36" s="34"/>
-      <c r="E36" s="58"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32">
         <v>35</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="58"/>
+      <c r="B37" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32">
         <v>36</v>
       </c>
-      <c r="B38" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="58"/>
+      <c r="B38" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="32">
         <v>37</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="59" t="s">
+      <c r="B39" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="32">
+        <v>37</v>
+      </c>
+      <c r="B40" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="58"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester4\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,21 +466,12 @@
     <t>Membuat halaman pembayaran Web</t>
   </si>
   <si>
-    <t>CRUD pembayaran Web</t>
-  </si>
-  <si>
     <t>Membuat halaman Ketegori Web</t>
   </si>
   <si>
-    <t>CRUD kategori produk admin Web</t>
-  </si>
-  <si>
     <t>Membuat halaman pesanan Web</t>
   </si>
   <si>
-    <t>CRUD pesanan Web</t>
-  </si>
-  <si>
     <t>Membuat halaman review pelanggan Web</t>
   </si>
   <si>
@@ -523,7 +514,16 @@
     <t>Membuat Backlog Pembagian Tugas</t>
   </si>
   <si>
-    <t>Membuat halaman profie dan edit profile user Web</t>
+    <t>CRUD pembayaran Web dan API</t>
+  </si>
+  <si>
+    <t>CRUD kategori produk admin Web dan API</t>
+  </si>
+  <si>
+    <t>CRUD profile user Web dan API</t>
+  </si>
+  <si>
+    <t>CRUD pesanan Web dan API</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,9 +853,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -896,6 +893,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,21 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,10 +1279,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1300,10 +1297,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1318,10 +1315,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1336,10 +1333,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1354,10 +1351,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1800,40 +1797,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="52" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="52" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2115,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2128,12 +2125,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
@@ -2142,44 +2139,44 @@
       <c r="B2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="49" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>155</v>
+      <c r="B4" s="50" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="47" t="s">
-        <v>163</v>
+      <c r="D4" s="33"/>
+      <c r="E4" s="46" t="s">
+        <v>160</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
@@ -2189,15 +2186,15 @@
       <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>156</v>
+      <c r="B5" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="G5" s="35" t="s">
+      <c r="D5" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="G5" s="34" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2205,14 +2202,14 @@
       <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="47" t="s">
-        <v>163</v>
-      </c>
+      <c r="C6" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="15"/>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
@@ -2221,15 +2218,15 @@
       <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="G7" s="37" t="s">
+      <c r="B7" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="G7" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2237,429 +2234,428 @@
       <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="47" t="s">
-        <v>163</v>
+      <c r="C11" s="46"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="47" t="s">
-        <v>163</v>
+      <c r="B13" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="47" t="s">
-        <v>163</v>
+      <c r="B14" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="47" t="s">
-        <v>163</v>
+      <c r="C15" s="46"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="47" t="s">
-        <v>163</v>
+      <c r="C17" s="46"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="47" t="s">
-        <v>163</v>
-      </c>
+      <c r="B18" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32">
         <v>17</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="46" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="32">
         <v>18</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="46" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="47" t="s">
-        <v>163</v>
+      <c r="B21" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="47" t="s">
-        <v>163</v>
-      </c>
+      <c r="B22" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="47" t="s">
-        <v>163</v>
+      <c r="C23" s="46"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="47" t="s">
-        <v>163</v>
-      </c>
+      <c r="B24" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47" t="s">
-        <v>163</v>
+      <c r="B26" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="47" t="s">
-        <v>163</v>
+      <c r="B27" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="47" t="s">
-        <v>163</v>
+      <c r="C28" s="46"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="47" t="s">
-        <v>163</v>
+      <c r="C29" s="46"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="32">
         <v>28</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="32">
         <v>29</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="47" t="s">
-        <v>163</v>
+      <c r="C31" s="46"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32">
         <v>30</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="46"/>
+      <c r="C32" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="32">
         <v>31</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="46"/>
+      <c r="C33" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32">
         <v>32</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="46"/>
+      <c r="C34" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="45"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="32">
         <v>33</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="45"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="46"/>
+      <c r="C36" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32">
         <v>35</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="46"/>
+      <c r="B37" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="45"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32">
         <v>36</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="46"/>
+      <c r="B38" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="32">
         <v>37</v>
       </c>
-      <c r="B39" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="47" t="s">
-        <v>163</v>
+      <c r="B39" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="32">
         <v>37</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="47" t="s">
-        <v>163</v>
+      <c r="B40" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -412,9 +412,6 @@
     <t>Riset/diskusi</t>
   </si>
   <si>
-    <t>Flowchart Transaksi</t>
-  </si>
-  <si>
     <t>Diagram Use Case</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>CRUD pesanan Web dan API</t>
+  </si>
+  <si>
+    <t>Flowchart Admin</t>
   </si>
 </sst>
 </file>
@@ -2112,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2140,7 +2140,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>125</v>
@@ -2149,7 +2149,7 @@
         <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="45"/>
       <c r="G3" s="35"/>
@@ -2171,12 +2171,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="33"/>
       <c r="E4" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
@@ -2187,11 +2187,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="45"/>
       <c r="G5" s="34" t="s">
@@ -2203,13 +2203,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="15"/>
+        <v>165</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46" t="s">
+        <v>159</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
@@ -2219,13 +2219,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="46"/>
-      <c r="D7" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46" t="s">
+        <v>159</v>
+      </c>
       <c r="G7" s="36" t="s">
         <v>15</v>
       </c>
@@ -2235,12 +2235,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="33"/>
       <c r="E8" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="37"/>
     </row>
@@ -2249,11 +2249,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="46"/>
     </row>
@@ -2262,11 +2262,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="45"/>
     </row>
@@ -2275,12 +2275,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="33"/>
       <c r="E11" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2288,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="45"/>
@@ -2301,12 +2301,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2314,12 +2314,12 @@
         <v>12</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="33"/>
       <c r="E14" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2327,12 +2327,12 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="33"/>
       <c r="E15" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2340,10 +2340,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
@@ -2353,12 +2353,12 @@
         <v>15</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="33"/>
       <c r="E17" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2366,11 +2366,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="46"/>
     </row>
@@ -2379,12 +2379,12 @@
         <v>17</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="33"/>
       <c r="E19" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2392,11 +2392,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2404,12 +2404,12 @@
         <v>19</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="33"/>
       <c r="E21" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2417,11 +2417,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="46"/>
     </row>
@@ -2430,12 +2430,12 @@
         <v>21</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="33"/>
       <c r="E23" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2443,11 +2443,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="46"/>
     </row>
@@ -2456,10 +2456,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="45"/>
@@ -2469,12 +2469,12 @@
         <v>24</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
       <c r="E26" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2482,12 +2482,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="33"/>
       <c r="E27" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2495,12 +2495,12 @@
         <v>26</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="33"/>
       <c r="E28" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2508,12 +2508,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="33"/>
       <c r="E29" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2521,11 +2521,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" s="45"/>
     </row>
@@ -2534,12 +2534,12 @@
         <v>29</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="33"/>
       <c r="E31" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2547,10 +2547,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="45"/>
@@ -2560,10 +2560,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="45"/>
@@ -2573,10 +2573,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="45"/>
@@ -2586,10 +2586,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="45"/>
@@ -2599,10 +2599,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="45"/>
@@ -2612,11 +2612,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="45"/>
     </row>
@@ -2625,10 +2625,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E38" s="45"/>
     </row>
@@ -2637,12 +2637,12 @@
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="33"/>
       <c r="E39" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2650,12 +2650,12 @@
         <v>37</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="33"/>
       <c r="E40" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -524,6 +524,21 @@
   </si>
   <si>
     <t>Flowchart Admin</t>
+  </si>
+  <si>
+    <t>Membuat halaman Produk</t>
+  </si>
+  <si>
+    <t>Membuat halaman CRUD produk</t>
+  </si>
+  <si>
+    <t>Membuat Detail pembayaran di admin</t>
+  </si>
+  <si>
+    <t>mebuat Detail pesanan di admin</t>
+  </si>
+  <si>
+    <t>Membuat Detail produk di admin</t>
   </si>
 </sst>
 </file>
@@ -773,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -934,6 +949,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2110,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2627,10 +2648,10 @@
       <c r="B38" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="32">
@@ -2657,6 +2678,71 @@
       <c r="E40" s="46" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A41" s="32">
+        <v>38</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A42" s="32">
+        <v>39</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A43" s="32">
+        <v>40</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1">
+      <c r="A44" s="32">
+        <v>41</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1">
+      <c r="A45" s="32">
+        <v>42</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester4\proyek_3\File_Proyek3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -535,10 +535,10 @@
     <t>Membuat Detail pembayaran di admin</t>
   </si>
   <si>
-    <t>mebuat Detail pesanan di admin</t>
-  </si>
-  <si>
     <t>Membuat Detail produk di admin</t>
+  </si>
+  <si>
+    <t>Membuat Detail pesanan di admin</t>
   </si>
 </sst>
 </file>
@@ -923,6 +923,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,12 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,10 +1300,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1318,10 +1318,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1336,10 +1336,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1354,10 +1354,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1372,10 +1372,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1818,40 +1818,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="56" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="56" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2146,12 +2146,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
@@ -2683,7 +2683,7 @@
       <c r="A41" s="32">
         <v>38</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="52" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="46"/>
@@ -2696,7 +2696,7 @@
       <c r="A42" s="32">
         <v>39</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="52" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="46"/>
@@ -2709,8 +2709,8 @@
       <c r="A43" s="32">
         <v>40</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>169</v>
+      <c r="B43" s="53" t="s">
+        <v>170</v>
       </c>
       <c r="C43" s="46" t="s">
         <v>159</v>
@@ -2735,8 +2735,8 @@
       <c r="A45" s="32">
         <v>42</v>
       </c>
-      <c r="B45" s="61" t="s">
-        <v>170</v>
+      <c r="B45" s="52" t="s">
+        <v>169</v>
       </c>
       <c r="C45" s="46" t="s">
         <v>159</v>

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2311,10 +2311,9 @@
       <c r="B12" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="46" t="s">
+        <v>159</v>
+      </c>
       <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:7">

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester4\proyek_3\File_Proyek3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -923,6 +923,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,12 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,10 +1300,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1318,10 +1318,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1336,10 +1336,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1354,10 +1354,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1372,10 +1372,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1818,40 +1818,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="56" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="56" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2146,12 +2146,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
@@ -2311,11 +2311,10 @@
       <c r="B12" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>159</v>
-      </c>
       <c r="D12" s="33"/>
-      <c r="E12" s="45"/>
+      <c r="E12" s="46" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32">
@@ -2683,7 +2682,7 @@
       <c r="A41" s="32">
         <v>38</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="52" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="46"/>
@@ -2696,7 +2695,7 @@
       <c r="A42" s="32">
         <v>39</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="52" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="46"/>
@@ -2709,7 +2708,7 @@
       <c r="A43" s="32">
         <v>40</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="53" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="46" t="s">
@@ -2735,7 +2734,7 @@
       <c r="A45" s="32">
         <v>42</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="52" t="s">
         <v>170</v>
       </c>
       <c r="C45" s="46" t="s">

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester4\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -418,9 +418,6 @@
     <t>Diagram Class Diagram Admin</t>
   </si>
   <si>
-    <t>Diagram Class Diagram Customer</t>
-  </si>
-  <si>
     <t>Diagram Konteks</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Membuat  halaman akun Mobile</t>
   </si>
   <si>
-    <t>Pembuatan  halaman kontak Mobile</t>
-  </si>
-  <si>
     <t>Membuat  halaman order Mobile</t>
   </si>
   <si>
@@ -496,12 +490,6 @@
     <t>DFD</t>
   </si>
   <si>
-    <t>SRS</t>
-  </si>
-  <si>
-    <t>SPMP</t>
-  </si>
-  <si>
     <t>Todo</t>
   </si>
   <si>
@@ -539,6 +527,21 @@
   </si>
   <si>
     <t>Membuat Detail produk di admin</t>
+  </si>
+  <si>
+    <t>Pembuatan  halaman Produk Mobile</t>
+  </si>
+  <si>
+    <t>Membuat halaman semua produk mobile</t>
+  </si>
+  <si>
+    <t>Membuat setting akun profile mobile</t>
+  </si>
+  <si>
+    <t>Membuat halaman checkout</t>
+  </si>
+  <si>
+    <t>SRS dan SPMP</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,7 +892,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -956,6 +958,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,10 +1306,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1318,10 +1324,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1336,10 +1342,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1354,10 +1360,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1372,10 +1378,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1818,40 +1824,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="58" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="58" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="58" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2131,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2146,12 +2152,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
@@ -2161,7 +2167,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>125</v>
@@ -2170,34 +2176,34 @@
         <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>151</v>
+      <c r="B4" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="33"/>
-      <c r="E4" s="46" t="s">
-        <v>159</v>
+      <c r="E4" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
@@ -2207,14 +2213,14 @@
       <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>152</v>
+      <c r="B5" s="63" t="s">
+        <v>150</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="G5" s="34" t="s">
         <v>11</v>
       </c>
@@ -2223,13 +2229,13 @@
       <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
-        <v>159</v>
+      <c r="B6" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -2239,13 +2245,13 @@
       <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46" t="s">
-        <v>159</v>
+      <c r="B7" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>15</v>
@@ -2255,13 +2261,13 @@
       <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="46" t="s">
-        <v>159</v>
+      <c r="E8" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="G8" s="37"/>
     </row>
@@ -2269,77 +2275,77 @@
       <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="46"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="46"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="46" t="s">
-        <v>159</v>
+      <c r="E11" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="45"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="46" t="s">
-        <v>159</v>
+      <c r="E12" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="46"/>
+      <c r="B13" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="45"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="46" t="s">
-        <v>159</v>
+      <c r="E13" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="46"/>
+      <c r="B14" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="45"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="46" t="s">
-        <v>159</v>
+      <c r="E14" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2347,64 +2353,63 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="46" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>159</v>
-      </c>
+      <c r="B16" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="45"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="45"/>
+      <c r="E16" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="46" t="s">
-        <v>159</v>
+      <c r="B17" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="46"/>
+      <c r="B18" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32">
         <v>17</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="15"/>
+      <c r="B19" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="46" t="s">
-        <v>159</v>
+      <c r="E19" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2412,155 +2417,156 @@
         <v>18</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>162</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="46" t="s">
-        <v>159</v>
+      <c r="E20" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="46" t="s">
-        <v>159</v>
+      <c r="B21" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="46"/>
+      <c r="B22" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="46" t="s">
-        <v>159</v>
-      </c>
+      <c r="B23" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32">
         <v>22</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="46"/>
+        <v>145</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46" t="s">
+      <c r="B26" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="46"/>
+      <c r="B27" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="45"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="46" t="s">
-        <v>159</v>
+      <c r="E27" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="46" t="s">
-        <v>159</v>
+      <c r="E28" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="46" t="s">
-        <v>159</v>
-      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="32">
         <v>28</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="32">
         <v>29</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="46" t="s">
-        <v>159</v>
-      </c>
+      <c r="C31" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32">
@@ -2569,179 +2575,195 @@
       <c r="B32" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="45"/>
+      <c r="C32" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="32">
         <v>31</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32">
         <v>32</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>159</v>
+      <c r="B34" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="45"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="32">
         <v>33</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>159</v>
+      <c r="B35" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="D35" s="33"/>
-      <c r="E35" s="45"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="45"/>
+      <c r="B36" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32">
         <v>35</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" s="45"/>
+      <c r="B37" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32">
         <v>36</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="45"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="32">
         <v>37</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="46"/>
+      <c r="B39" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="45"/>
       <c r="D39" s="33"/>
-      <c r="E39" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1">
       <c r="A40" s="32">
-        <v>37</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="46"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="45"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="46" t="s">
-        <v>159</v>
+      <c r="E40" s="45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1">
       <c r="A41" s="32">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1">
+      <c r="A42" s="32">
+        <v>40</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1">
+      <c r="A43" s="32">
+        <v>41</v>
+      </c>
+      <c r="B43" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A42" s="32">
-        <v>39</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="32">
-        <v>40</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="32">
-        <v>41</v>
-      </c>
-      <c r="B44" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
+      <c r="C44" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="32">
-        <v>42</v>
-      </c>
-      <c r="B45" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1">
+      <c r="A46" s="32">
+        <v>44</v>
+      </c>
+      <c r="B46" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="46"/>
+      <c r="C46" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>SRS dan SPMP</t>
+  </si>
+  <si>
+    <t>membuat bottom bar mobile</t>
   </si>
 </sst>
 </file>
@@ -931,6 +934,10 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,10 +965,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,10 +1309,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1324,10 +1327,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1342,10 +1345,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1360,10 +1363,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1378,10 +1381,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1824,40 +1827,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="57" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2137,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2152,12 +2155,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
@@ -2213,7 +2216,7 @@
       <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="54" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="15"/>
@@ -2624,46 +2627,46 @@
       <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="B36" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="45"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
+      <c r="E36" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32">
         <v>35</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>171</v>
+      <c r="B37" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="D37" s="45"/>
-      <c r="E37" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32">
         <v>36</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="45"/>
       <c r="E38" s="45" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+    <row r="39" spans="1:5">
       <c r="A39" s="32">
         <v>37</v>
       </c>
-      <c r="B39" s="51" t="s">
-        <v>162</v>
+      <c r="B39" s="46" t="s">
+        <v>156</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="33"/>
@@ -2676,7 +2679,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="33"/>
@@ -2688,34 +2691,34 @@
       <c r="A41" s="32">
         <v>39</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+      <c r="B41" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1">
       <c r="A42" s="32">
         <v>40</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="B42" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="45"/>
       <c r="E42" s="45"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="32">
         <v>41</v>
       </c>
-      <c r="B43" s="51" t="s">
-        <v>166</v>
+      <c r="B43" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="45" t="s">
@@ -2728,20 +2731,20 @@
         <v>42</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="45"/>
+        <v>166</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="E44" s="45"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="32">
         <v>43</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>169</v>
+      <c r="B45" s="51" t="s">
+        <v>168</v>
       </c>
       <c r="C45" s="45" t="s">
         <v>155</v>
@@ -2753,8 +2756,8 @@
       <c r="A46" s="32">
         <v>44</v>
       </c>
-      <c r="B46" s="52" t="s">
-        <v>170</v>
+      <c r="B46" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="C46" s="45" t="s">
         <v>155</v>
@@ -2762,8 +2765,21 @@
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="62"/>
+    <row r="47" spans="1:5" ht="15" customHeight="1">
+      <c r="A47" s="32">
+        <v>45</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="175">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>membuat bottom bar mobile</t>
+  </si>
+  <si>
+    <t>Membuat halaman sflash</t>
+  </si>
+  <si>
+    <t>Membuat halaman getstarted</t>
   </si>
 </sst>
 </file>
@@ -794,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -933,9 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,10 +1312,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1327,10 +1330,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1345,10 +1348,10 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1363,10 +1366,10 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="58"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1381,10 +1384,10 @@
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1827,40 +1830,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="59" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="25">
         <v>1</v>
       </c>
@@ -2140,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2155,12 +2158,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="30" t="s">
@@ -2216,7 +2219,7 @@
       <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="15"/>
@@ -2778,8 +2781,31 @@
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="53"/>
+    <row r="48" spans="1:5" ht="15" customHeight="1">
+      <c r="A48" s="32">
+        <v>46</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1">
+      <c r="A49" s="32">
+        <v>47</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester4\proyek_3\File_Proyek3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\proyek_3\File_Proyek3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B53" activeCellId="1" sqref="B53 B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2523,7 +2523,7 @@
       <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="40" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="45"/>

--- a/File_Proyek3/Backlog_Proyek3.xlsx
+++ b/File_Proyek3/Backlog_Proyek3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="176">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>Membuat halaman getstarted</t>
+  </si>
+  <si>
+    <t>Diagram squence</t>
   </si>
 </sst>
 </file>
@@ -2143,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2307,22 +2310,22 @@
       <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="B11" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="45"/>
+      <c r="B12" s="40" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" s="33"/>
       <c r="E12" s="45" t="s">
         <v>155</v>
@@ -2333,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="33"/>
@@ -2345,8 +2348,8 @@
       <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>140</v>
+      <c r="B14" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="33"/>
@@ -2358,37 +2361,37 @@
       <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>141</v>
+      <c r="B15" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="44"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>142</v>
+      <c r="B16" s="42" t="s">
+        <v>141</v>
       </c>
       <c r="C16" s="45"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="D16" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="32">
         <v>15</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="45" t="s">
         <v>155</v>
       </c>
@@ -2397,11 +2400,11 @@
       <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
         <v>155</v>
       </c>
@@ -2411,8 +2414,9 @@
         <v>17</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>158</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="33"/>
       <c r="E19" s="45" t="s">
         <v>155</v>
@@ -2422,10 +2426,9 @@
       <c r="A20" s="32">
         <v>18</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="45"/>
+      <c r="B20" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="D20" s="33"/>
       <c r="E20" s="45" t="s">
         <v>155</v>
@@ -2436,10 +2439,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="45" t="s">
         <v>155</v>
       </c>
@@ -2449,10 +2452,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C22" s="45"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
         <v>155</v>
       </c>
@@ -2462,49 +2465,49 @@
         <v>21</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C23" s="45"/>
-      <c r="D23" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="45"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="B25" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>159</v>
+      <c r="B26" s="40" t="s">
+        <v>146</v>
       </c>
       <c r="C26" s="45"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
         <v>155</v>
       </c>
@@ -2513,8 +2516,8 @@
       <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>132</v>
+      <c r="B27" s="46" t="s">
+        <v>159</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="33"/>
@@ -2527,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="33"/>
@@ -2540,51 +2543,51 @@
         <v>27</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="45"/>
-      <c r="D29" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="44"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="32">
         <v>28</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>135</v>
+      <c r="B30" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="C30" s="45"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="D30" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="32">
         <v>29</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="44"/>
+      <c r="B31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32">
         <v>30</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>137</v>
+      <c r="B32" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5">
@@ -2592,33 +2595,33 @@
         <v>31</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45" t="s">
-        <v>155</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="33"/>
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32">
         <v>32</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="33"/>
+      <c r="B34" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="E34" s="44"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="32">
         <v>33</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>139</v>
+      <c r="B35" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>155</v>
@@ -2630,59 +2633,59 @@
       <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="B36" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="32">
         <v>35</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="B37" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="45"/>
       <c r="D37" s="45"/>
-      <c r="E37" s="44"/>
+      <c r="E37" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="32">
         <v>36</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>171</v>
+      <c r="B38" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="D38" s="45"/>
-      <c r="E38" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="32">
         <v>37</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="33"/>
+      <c r="B39" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="45"/>
       <c r="E39" s="45" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="32">
         <v>38</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>162</v>
+      <c r="B40" s="46" t="s">
+        <v>156</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="33"/>
@@ -2695,7 +2698,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="33"/>
@@ -2707,34 +2710,34 @@
       <c r="A42" s="32">
         <v>40</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1">
+      <c r="B42" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="32">
         <v>41</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="B43" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="45"/>
       <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="32">
         <v>42</v>
       </c>
-      <c r="B44" s="51" t="s">
-        <v>166</v>
+      <c r="B44" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="45" t="s">
@@ -2747,20 +2750,20 @@
         <v>43</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="45"/>
+        <v>166</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="E45" s="45"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="32">
         <v>44</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>169</v>
+      <c r="B46" s="51" t="s">
+        <v>168</v>
       </c>
       <c r="C46" s="45" t="s">
         <v>155</v>
@@ -2772,8 +2775,8 @@
       <c r="A47" s="32">
         <v>45</v>
       </c>
-      <c r="B47" s="52" t="s">
-        <v>170</v>
+      <c r="B47" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="C47" s="45" t="s">
         <v>155</v>
@@ -2786,24 +2789,37 @@
         <v>46</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="45"/>
+        <v>170</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="D48" s="45"/>
-      <c r="E48" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="32">
         <v>47</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1">
+      <c r="A50" s="32">
+        <v>48</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45" t="s">
         <v>155</v>
       </c>
     </row>
